--- a/GeoSoil_Employee.xlsx
+++ b/GeoSoil_Employee.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kign\Desktop\Android Studio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5054FC51-9F7F-445B-922B-473C0DCC7E84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2B4741-8DBC-4D48-A0B5-E8ACEA4E637D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13920" yWindow="2100" windowWidth="11985" windowHeight="11385" xr2:uid="{7B695BF5-9A52-4408-88E8-A2B957F3DF83}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7B695BF5-9A52-4408-88E8-A2B957F3DF83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>088-2222-4444</t>
   </si>
@@ -100,6 +100,24 @@
   </si>
   <si>
     <t>https://github.com/bumrungyat/GeoSoil_Employee/blob/main/595509.JPG</t>
+  </si>
+  <si>
+    <t>fulln</t>
+  </si>
+  <si>
+    <t>nickn</t>
+  </si>
+  <si>
+    <t>phonen</t>
+  </si>
+  <si>
+    <t>officen</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>listImage</t>
   </si>
 </sst>
 </file>
@@ -452,116 +470,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535C2371-44ED-4D18-B076-204BC764EC3C}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1">
-        <v>594697</v>
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F2">
-        <v>592256</v>
+        <v>594697</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>593159</v>
+        <v>592256</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4">
-        <v>595509</v>
+        <v>593159</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>595509</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>592446</v>
       </c>
     </row>

--- a/GeoSoil_Employee.xlsx
+++ b/GeoSoil_Employee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kign\Desktop\Android Studio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2B4741-8DBC-4D48-A0B5-E8ACEA4E637D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D623A6-5943-4EA2-8E52-FA42856D5E27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7B695BF5-9A52-4408-88E8-A2B957F3DF83}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>088-2222-4444</t>
   </si>
@@ -100,34 +100,25 @@
   </si>
   <si>
     <t>https://github.com/bumrungyat/GeoSoil_Employee/blob/main/595509.JPG</t>
-  </si>
-  <si>
-    <t>fulln</t>
-  </si>
-  <si>
-    <t>nickn</t>
-  </si>
-  <si>
-    <t>phonen</t>
-  </si>
-  <si>
-    <t>officen</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>listImage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
@@ -151,13 +142,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -470,9 +464,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535C2371-44ED-4D18-B076-204BC764EC3C}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -484,125 +480,112 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1">
+        <v>594697</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>594697</v>
+        <v>592256</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>592256</v>
+        <v>593159</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F4">
-        <v>593159</v>
+        <v>595509</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F5">
-        <v>595509</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6">
         <v>592446</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" r:id="rId1" xr:uid="{05EDE536-6695-41EF-9799-5BA74CBA7990}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{C750DEF3-2A00-40D8-A0ED-0F32D7C5C009}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{D8370E28-8815-4662-9C4C-809B25259F06}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{1EC17A03-96F2-4D14-8D8B-10FB614F7A4B}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{5CA473FE-8071-4DB4-A6EF-7530E00E5598}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>